--- a/data2.xlsx
+++ b/data2.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wolfgang\Git\Project-TMI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88FD2E67-7532-45E5-9837-5A4BF6538C78}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A1BCC35-7D1A-47D6-8564-7E9287BED336}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="179017" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>#Points</t>
   </si>
@@ -38,6 +38,12 @@
   </si>
   <si>
     <t>Kavg</t>
+  </si>
+  <si>
+    <t>brute-force</t>
+  </si>
+  <si>
+    <t>variant 1</t>
   </si>
 </sst>
 </file>
@@ -1841,6 +1847,869 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="nl-NL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nl-BE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>data1!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>brute-force</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>data1!$A:$A</c:f>
+              <c:strCache>
+                <c:ptCount val="43"/>
+                <c:pt idx="0">
+                  <c:v>#Points</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>275</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>302</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>332</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>365</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>401</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>441</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>485</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>533</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>586</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>644</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>708</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>778</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>855</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>940</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1034</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1137</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1250</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1375</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1512</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1663</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1829</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2212</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2433</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2676</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2943</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3237</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3560</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3916</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>4307</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>4737</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>5210</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>5731</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>6304</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>6934</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>7627</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>8389</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>9227</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>10149</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>11163</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>12279</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>data1!$G$2:$G$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="42"/>
+                <c:pt idx="0">
+                  <c:v>4.1809079999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.074284</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.459148</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.029296</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.77612499999999995</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.3077559999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.595202</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.99855499999999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.463004</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.5254829999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.0913149999999998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.553242</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.7813659999999998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.414088</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.1413549999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.9513360000000004</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7.8516709999999996</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.5194949999999992</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>10.955078</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>13.629092999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>16.474522</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>20.583454</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>25.524588000000001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>29.591165</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>37.544175000000003</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>47.097213000000004</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>56.524706000000002</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>73.218368999999996</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>85.472128999999995</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>105.983779</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>130.67884699999999</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>160.799227</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>203.64493400000001</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>248.887575</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>300.97121600000003</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>367.69317599999999</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>449.81250599999998</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>571.07504600000004</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>725.40506200000004</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>898.92014700000004</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1129.01728</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1368.6584399999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2337-479C-92DC-625FC55052C1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>data1!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>variant 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>data1!$A:$A</c:f>
+              <c:strCache>
+                <c:ptCount val="43"/>
+                <c:pt idx="0">
+                  <c:v>#Points</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>275</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>302</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>332</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>365</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>401</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>441</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>485</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>533</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>586</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>644</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>708</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>778</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>855</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>940</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1034</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1137</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1250</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1375</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1512</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1663</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1829</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2212</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2433</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2676</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2943</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3237</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3560</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3916</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>4307</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>4737</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>5210</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>5731</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>6304</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>6934</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>7627</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>8389</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>9227</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>10149</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>11163</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>12279</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>data1!$H$2:$H$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="42"/>
+                <c:pt idx="0">
+                  <c:v>0.18199299999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.26713599999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.18163699999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0236000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.8261000000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.6435999999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.6362000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.7413999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.4542000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.0563E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.2238999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.0606000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.2230000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.1759999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.9585000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.2788000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.3624999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6.694E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6.9383E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.2058E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>7.3690000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>6.7611000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>8.1068000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>8.7742000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>9.8645999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.10602499999999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.13297300000000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.14957500000000001</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.15568799999999999</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.172875</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.21113100000000001</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.210033</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.22674900000000001</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.33057500000000001</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.27940700000000002</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.35242699999999999</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.37356800000000001</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.43321700000000002</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.45157799999999998</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.53189900000000001</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.66420599999999996</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.728186</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-2337-479C-92DC-625FC55052C1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="555425423"/>
+        <c:axId val="552803055"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="555425423"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-BE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="552803055"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="552803055"/>
+        <c:scaling>
+          <c:logBase val="2"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-BE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="555425423"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nl-BE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="nl-BE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1921,6 +2790,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -2953,20 +3862,536 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>2926080</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>80010</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>182880</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>148590</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>80010</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>144780</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>148590</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2993,16 +4418,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>137160</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>11430</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>213360</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>441960</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>11430</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>518160</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3022,6 +4447,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>541020</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>87630</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>236220</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>87630</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Grafiek 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B698A76E-5B30-4144-9BBA-61F61E9542DA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3327,10 +4788,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F43"/>
+  <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="P36" sqref="P36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3341,7 +4802,7 @@
     <col min="6" max="6" width="23.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3360,8 +4821,14 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>250</v>
       </c>
@@ -3380,8 +4847,16 @@
       <c r="F2">
         <v>2.02</v>
       </c>
+      <c r="G2">
+        <f>C2/1000000</f>
+        <v>4.1809079999999996</v>
+      </c>
+      <c r="H2">
+        <f>D2/1000000</f>
+        <v>0.18199299999999999</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>275</v>
       </c>
@@ -3400,8 +4875,16 @@
       <c r="F3">
         <v>0.81454545454545402</v>
       </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G43" si="0">C3/1000000</f>
+        <v>2.074284</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H43" si="1">D3/1000000</f>
+        <v>0.26713599999999998</v>
+      </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>302</v>
       </c>
@@ -3420,8 +4903,16 @@
       <c r="F4">
         <v>1.0860927152317801</v>
       </c>
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>0.459148</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="1"/>
+        <v>0.18163699999999999</v>
+      </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>332</v>
       </c>
@@ -3440,8 +4931,16 @@
       <c r="F5">
         <v>1.5240963855421601</v>
       </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>1.029296</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="1"/>
+        <v>8.0236000000000002E-2</v>
+      </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>365</v>
       </c>
@@ -3460,8 +4959,16 @@
       <c r="F6">
         <v>1.5506849315068401</v>
       </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>0.77612499999999995</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="1"/>
+        <v>8.8261000000000006E-2</v>
+      </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>401</v>
       </c>
@@ -3480,8 +4987,16 @@
       <c r="F7">
         <v>1.75311720698254</v>
       </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>1.3077559999999999</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="1"/>
+        <v>9.6435999999999994E-2</v>
+      </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>441</v>
       </c>
@@ -3500,8 +5015,16 @@
       <c r="F8">
         <v>0.74149659863945505</v>
       </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>1.595202</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="1"/>
+        <v>1.6362000000000002E-2</v>
+      </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>485</v>
       </c>
@@ -3520,8 +5043,16 @@
       <c r="F9">
         <v>1.25154639175257</v>
       </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>0.99855499999999997</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="1"/>
+        <v>1.7413999999999999E-2</v>
+      </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>533</v>
       </c>
@@ -3540,8 +5071,16 @@
       <c r="F10">
         <v>1.9718574108818001</v>
       </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>1.463004</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="1"/>
+        <v>2.4542000000000001E-2</v>
+      </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>586</v>
       </c>
@@ -3560,8 +5099,16 @@
       <c r="F11">
         <v>2.1262798634812201</v>
       </c>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>1.5254829999999999</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="1"/>
+        <v>3.0563E-2</v>
+      </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>644</v>
       </c>
@@ -3580,8 +5127,16 @@
       <c r="F12">
         <v>1.7965838509316701</v>
       </c>
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>2.0913149999999998</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="1"/>
+        <v>4.2238999999999999E-2</v>
+      </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>708</v>
       </c>
@@ -3600,8 +5155,16 @@
       <c r="F13">
         <v>0.81355932203389802</v>
       </c>
+      <c r="G13">
+        <f t="shared" si="0"/>
+        <v>2.553242</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="1"/>
+        <v>3.0606000000000001E-2</v>
+      </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>778</v>
       </c>
@@ -3620,8 +5183,16 @@
       <c r="F14">
         <v>1.8637532133676</v>
       </c>
+      <c r="G14">
+        <f t="shared" si="0"/>
+        <v>2.7813659999999998</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="1"/>
+        <v>3.2230000000000002E-2</v>
+      </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>855</v>
       </c>
@@ -3640,8 +5211,16 @@
       <c r="F15">
         <v>1.35438596491228</v>
       </c>
+      <c r="G15">
+        <f t="shared" si="0"/>
+        <v>3.414088</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="1"/>
+        <v>4.1759999999999999E-2</v>
+      </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>940</v>
       </c>
@@ -3660,8 +5239,16 @@
       <c r="F16">
         <v>1.4393617021276499</v>
       </c>
+      <c r="G16">
+        <f t="shared" si="0"/>
+        <v>5.1413549999999999</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="1"/>
+        <v>3.9585000000000002E-2</v>
+      </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1034</v>
       </c>
@@ -3680,8 +5267,16 @@
       <c r="F17">
         <v>0.14796905222437101</v>
       </c>
+      <c r="G17">
+        <f t="shared" si="0"/>
+        <v>5.9513360000000004</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="1"/>
+        <v>5.2788000000000002E-2</v>
+      </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1137</v>
       </c>
@@ -3700,8 +5295,16 @@
       <c r="F18">
         <v>1.1152154793315701</v>
       </c>
+      <c r="G18">
+        <f t="shared" si="0"/>
+        <v>7.8516709999999996</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="1"/>
+        <v>5.3624999999999999E-2</v>
+      </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>1250</v>
       </c>
@@ -3720,8 +5323,16 @@
       <c r="F19">
         <v>1.044</v>
       </c>
+      <c r="G19">
+        <f t="shared" si="0"/>
+        <v>8.5194949999999992</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="1"/>
+        <v>6.694E-2</v>
+      </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>1375</v>
       </c>
@@ -3740,8 +5351,16 @@
       <c r="F20">
         <v>0.71563636363636296</v>
       </c>
+      <c r="G20">
+        <f t="shared" si="0"/>
+        <v>10.955078</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="1"/>
+        <v>6.9383E-2</v>
+      </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>1512</v>
       </c>
@@ -3760,8 +5379,16 @@
       <c r="F21">
         <v>1.20502645502645</v>
       </c>
+      <c r="G21">
+        <f t="shared" si="0"/>
+        <v>13.629092999999999</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="1"/>
+        <v>5.2058E-2</v>
+      </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>1663</v>
       </c>
@@ -3780,8 +5407,16 @@
       <c r="F22">
         <v>0.830426939266386</v>
       </c>
+      <c r="G22">
+        <f t="shared" si="0"/>
+        <v>16.474522</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="1"/>
+        <v>7.3690000000000005E-2</v>
+      </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>1829</v>
       </c>
@@ -3800,8 +5435,16 @@
       <c r="F23">
         <v>1.32968835429196</v>
       </c>
+      <c r="G23">
+        <f t="shared" si="0"/>
+        <v>20.583454</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="1"/>
+        <v>6.7611000000000004E-2</v>
+      </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>2011</v>
       </c>
@@ -3820,8 +5463,16 @@
       <c r="F24">
         <v>1.1984087518647399</v>
       </c>
+      <c r="G24">
+        <f t="shared" si="0"/>
+        <v>25.524588000000001</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="1"/>
+        <v>8.1068000000000001E-2</v>
+      </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>2212</v>
       </c>
@@ -3840,8 +5491,16 @@
       <c r="F25">
         <v>1.6383363471971</v>
       </c>
+      <c r="G25">
+        <f t="shared" si="0"/>
+        <v>29.591165</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="1"/>
+        <v>8.7742000000000001E-2</v>
+      </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>2433</v>
       </c>
@@ -3860,8 +5519,16 @@
       <c r="F26">
         <v>1.81586518701191</v>
       </c>
+      <c r="G26">
+        <f t="shared" si="0"/>
+        <v>37.544175000000003</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="1"/>
+        <v>9.8645999999999998E-2</v>
+      </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>2676</v>
       </c>
@@ -3880,8 +5547,16 @@
       <c r="F27">
         <v>1.4783258594917701</v>
       </c>
+      <c r="G27">
+        <f t="shared" si="0"/>
+        <v>47.097213000000004</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="1"/>
+        <v>0.10602499999999999</v>
+      </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>2943</v>
       </c>
@@ -3900,8 +5575,16 @@
       <c r="F28">
         <v>0.93374108053007099</v>
       </c>
+      <c r="G28">
+        <f t="shared" si="0"/>
+        <v>56.524706000000002</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="1"/>
+        <v>0.13297300000000001</v>
+      </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>3237</v>
       </c>
@@ -3920,8 +5603,16 @@
       <c r="F29">
         <v>1.3694779116465801</v>
       </c>
+      <c r="G29">
+        <f t="shared" si="0"/>
+        <v>73.218368999999996</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="1"/>
+        <v>0.14957500000000001</v>
+      </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>3560</v>
       </c>
@@ -3940,8 +5631,16 @@
       <c r="F30">
         <v>1.2803370786516799</v>
       </c>
+      <c r="G30">
+        <f t="shared" si="0"/>
+        <v>85.472128999999995</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="1"/>
+        <v>0.15568799999999999</v>
+      </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>3916</v>
       </c>
@@ -3960,8 +5659,16 @@
       <c r="F31">
         <v>1.59422880490296</v>
       </c>
+      <c r="G31">
+        <f t="shared" si="0"/>
+        <v>105.983779</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="1"/>
+        <v>0.172875</v>
+      </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>4307</v>
       </c>
@@ -3980,8 +5687,16 @@
       <c r="F32">
         <v>1.4179243092639799</v>
       </c>
+      <c r="G32">
+        <f t="shared" si="0"/>
+        <v>130.67884699999999</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="1"/>
+        <v>0.21113100000000001</v>
+      </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>4737</v>
       </c>
@@ -4000,8 +5715,16 @@
       <c r="F33">
         <v>2.1418619379354</v>
       </c>
+      <c r="G33">
+        <f t="shared" si="0"/>
+        <v>160.799227</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="1"/>
+        <v>0.210033</v>
+      </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>5210</v>
       </c>
@@ -4020,8 +5743,16 @@
       <c r="F34">
         <v>1.4529750479846399</v>
       </c>
+      <c r="G34">
+        <f t="shared" si="0"/>
+        <v>203.64493400000001</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="1"/>
+        <v>0.22674900000000001</v>
+      </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>5731</v>
       </c>
@@ -4040,8 +5771,16 @@
       <c r="F35">
         <v>1.5995463269935399</v>
       </c>
+      <c r="G35">
+        <f t="shared" si="0"/>
+        <v>248.887575</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="1"/>
+        <v>0.33057500000000001</v>
+      </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>6304</v>
       </c>
@@ -4060,8 +5799,16 @@
       <c r="F36">
         <v>1.4498730964466999</v>
       </c>
+      <c r="G36">
+        <f t="shared" si="0"/>
+        <v>300.97121600000003</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="1"/>
+        <v>0.27940700000000002</v>
+      </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>6934</v>
       </c>
@@ -4080,8 +5827,16 @@
       <c r="F37">
         <v>0.54917796365733995</v>
       </c>
+      <c r="G37">
+        <f t="shared" si="0"/>
+        <v>367.69317599999999</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="1"/>
+        <v>0.35242699999999999</v>
+      </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>7627</v>
       </c>
@@ -4100,8 +5855,16 @@
       <c r="F38">
         <v>1.56549101874918</v>
       </c>
+      <c r="G38">
+        <f t="shared" si="0"/>
+        <v>449.81250599999998</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="1"/>
+        <v>0.37356800000000001</v>
+      </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>8389</v>
       </c>
@@ -4120,8 +5883,16 @@
       <c r="F39">
         <v>2.0963166050780702</v>
       </c>
+      <c r="G39">
+        <f t="shared" si="0"/>
+        <v>571.07504600000004</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="1"/>
+        <v>0.43321700000000002</v>
+      </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>9227</v>
       </c>
@@ -4140,8 +5911,16 @@
       <c r="F40">
         <v>0.87406524330768398</v>
       </c>
+      <c r="G40">
+        <f t="shared" si="0"/>
+        <v>725.40506200000004</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="1"/>
+        <v>0.45157799999999998</v>
+      </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>10149</v>
       </c>
@@ -4160,8 +5939,16 @@
       <c r="F41">
         <v>1.78342693861464</v>
       </c>
+      <c r="G41">
+        <f t="shared" si="0"/>
+        <v>898.92014700000004</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="1"/>
+        <v>0.53189900000000001</v>
+      </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>11163</v>
       </c>
@@ -4180,8 +5967,16 @@
       <c r="F42">
         <v>0.84368001433306405</v>
       </c>
+      <c r="G42">
+        <f t="shared" si="0"/>
+        <v>1129.01728</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="1"/>
+        <v>0.66420599999999996</v>
+      </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>12279</v>
       </c>
@@ -4199,6 +5994,14 @@
       </c>
       <c r="F43">
         <v>0.92531965143741302</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="0"/>
+        <v>1368.6584399999999</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="1"/>
+        <v>0.728186</v>
       </c>
     </row>
   </sheetData>

--- a/data2.xlsx
+++ b/data2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wolfgang\Git\Project-TMI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF2AD701-6D0C-4C66-AE7C-0A50E7E34607}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB739BEB-670F-4CBF-928B-DC3ED2F23D21}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5652" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1560,6 +1560,492 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="nl-NL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>data2!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Kmax</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>data2!$B$2:$B$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>19</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>data2!$E$2:$E$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>13.62</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>46.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>97.82</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>164.18</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>246.62</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>335.28</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>419.12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>524.96</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>637.74</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>736.68</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>833.8</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>897.82</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1034.46</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1150.82</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1233.3599999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1309.06</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1429.74</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1559.56</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7BA6-4E3F-BC16-BD90F8430C14}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1179320400"/>
+        <c:axId val="1176579824"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1179320400"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="nl-BE"/>
+                  <a:t>aantal</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="nl-BE" baseline="0"/>
+                  <a:t> dimensies</a:t>
+                </a:r>
+                <a:endParaRPr lang="nl-BE"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="nl-BE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-BE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1176579824"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1176579824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="nl-BE"/>
+                  <a:t>Kmax</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="nl-BE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-BE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1179320400"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="nl-BE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1640,6 +2126,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -2157,6 +2683,522 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2741,6 +3783,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>335280</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Grafiek 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{701DB102-306D-4887-81C0-8FCCA28E27A7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3048,8 +4126,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="Q20" sqref="Q20"/>
+    <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
